--- a/biology/Botanique/Ansellia_africana/Ansellia_africana.xlsx
+++ b/biology/Botanique/Ansellia_africana/Ansellia_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ansellia africana est la seule espèce du genre monotypique d'orchidées Ansellia. Elle est communément connue sous le nom d’Orchidée léopard. Le genre Ansellia a été nommé en l'honneur de John Ansell[1], un assistant botaniste anglais, qui a trouvé les premiers spécimens en 1841 sur l'île de Fernando Po en Afrique de l'Ouest. Ce genre est connu sous l'abréviation Aslla dans le commerce horticole.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansellia africana est la seule espèce du genre monotypique d'orchidées Ansellia. Elle est communément connue sous le nom d’Orchidée léopard. Le genre Ansellia a été nommé en l'honneur de John Ansell, un assistant botaniste anglais, qui a trouvé les premiers spécimens en 1841 sur l'île de Fernando Po en Afrique de l'Ouest. Ce genre est connu sous l'abréviation Aslla dans le commerce horticole.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée est originaire de l'Afrique tropicale et méridionale[1] où on la trouve le long des côtes et des fleuves dans la canopée, rarement sur le sol[1], généralement à des altitudes inférieures à 700 m (parfois jusqu'à 2 200 m).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée est originaire de l'Afrique tropicale et méridionale où on la trouve le long des côtes et des fleuves dans la canopée, rarement sur le sol, généralement à des altitudes inférieures à 700 m (parfois jusqu'à 2 200 m).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande espèce épiphyte vivace, parfois terrestre, poussant parfois en touffes spectaculaires attachées aux branches des grands arbres. Les racines aériennes blanches, ressemblant à des aiguilles, sont caractéristiques de cette orchidée. Elles forment une sorte de poubelle, entourée de nombreux pseudobulbes jaunes, fusiformes, en forme de canne, attrapant les feuilles en décomposition et les détritus sur laquelle la plante se nourrit. Ces pseudobulbes peuvent atteindre une taille gigantesque, jusqu'à 60 cm de long. Cette orchidée robuste peut devenir très volumineuse, parfois avec un poids estimé à plus d'une tonne[citation nécessaire]. On a même vu des grands ducs (Bubo bubo) faire leur nid dans ces bouquets[citation nécessaire].
 Ces pseudobulbes possèdent à leur sommet 6 à 7 feuilles, lancéolées ou ligulées, pointues, plissées, coriaces. Ils donnent naissance à une inflorescence paniculée, atteignant jusqu'à 85 cm de long, avec de nombreuses fleurs (10 à 100), délicatement parfumées de 6 cm de diamètre.
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ansellia confusa N.E.Brown 1886
 Ansellia congoensis Rodigas 1886
@@ -613,7 +631,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ansellia africana subsp. africana (Afrique du Sud et tropicale)
 Ansellia africana subsp. australis (Angola)</t>
@@ -644,9 +664,11 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Liste des hybrides selon la Royal Horticultural Society[2] entre Ansiella et 8 autres genres:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des hybrides selon la Royal Horticultural Society entre Ansiella et 8 autres genres:
 Anaphorchis (× Graphorchis)
 Ansidium (× Cymbidium)
 Catasellia (× Catasetum)
